--- a/Relatorio_Dominios_Ambiguos.xlsx
+++ b/Relatorio_Dominios_Ambiguos.xlsx
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.113</v>
+        <v>0.11</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.113</v>
+        <v>0.11</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -6027,7 +6027,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>0.113</v>
+        <v>0.11</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -22607,7 +22607,7 @@
         </is>
       </c>
       <c r="C1109" t="n">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
       <c r="D1109" t="inlineStr">
         <is>
@@ -22621,13 +22621,17 @@
           <t>INCA ABRACAD RSF (C)1/2X3/4 ( 100) (M GAS)</t>
         </is>
       </c>
-      <c r="B1110" t="inlineStr"/>
+      <c r="B1110" t="inlineStr">
+        <is>
+          <t>FERRAGENS</t>
+        </is>
+      </c>
       <c r="C1110" t="n">
-        <v>0</v>
+        <v>0.037</v>
       </c>
       <c r="D1110" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('FERRAGENS', 3.0)]</t>
         </is>
       </c>
     </row>
@@ -24563,7 +24567,7 @@
         </is>
       </c>
       <c r="C1207" t="n">
-        <v>0.113</v>
+        <v>0.11</v>
       </c>
       <c r="D1207" t="inlineStr">
         <is>
@@ -28363,7 +28367,7 @@
         </is>
       </c>
       <c r="C1397" t="n">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
       <c r="D1397" t="inlineStr">
         <is>
@@ -28443,7 +28447,7 @@
         </is>
       </c>
       <c r="C1401" t="n">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
       <c r="D1401" t="inlineStr">
         <is>
@@ -29843,7 +29847,7 @@
         </is>
       </c>
       <c r="C1471" t="n">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
       <c r="D1471" t="inlineStr">
         <is>
@@ -29883,7 +29887,7 @@
         </is>
       </c>
       <c r="C1473" t="n">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
       <c r="D1473" t="inlineStr">
         <is>
@@ -36923,7 +36927,7 @@
         </is>
       </c>
       <c r="C1825" t="n">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
       <c r="D1825" t="inlineStr">
         <is>
@@ -36943,7 +36947,7 @@
         </is>
       </c>
       <c r="C1826" t="n">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
       <c r="D1826" t="inlineStr">
         <is>
@@ -36963,7 +36967,7 @@
         </is>
       </c>
       <c r="C1827" t="n">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
       <c r="D1827" t="inlineStr">
         <is>
@@ -36983,7 +36987,7 @@
         </is>
       </c>
       <c r="C1828" t="n">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
       <c r="D1828" t="inlineStr">
         <is>
@@ -37003,7 +37007,7 @@
         </is>
       </c>
       <c r="C1829" t="n">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
       <c r="D1829" t="inlineStr">
         <is>
@@ -42003,7 +42007,7 @@
         </is>
       </c>
       <c r="C2079" t="n">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
       <c r="D2079" t="inlineStr">
         <is>
@@ -42023,7 +42027,7 @@
         </is>
       </c>
       <c r="C2080" t="n">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
       <c r="D2080" t="inlineStr">
         <is>
@@ -42503,7 +42507,7 @@
         </is>
       </c>
       <c r="C2104" t="n">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
       <c r="D2104" t="inlineStr">
         <is>
@@ -45163,7 +45167,7 @@
         </is>
       </c>
       <c r="C2237" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="D2237" t="inlineStr">
         <is>
@@ -45183,7 +45187,7 @@
         </is>
       </c>
       <c r="C2238" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="D2238" t="inlineStr">
         <is>
@@ -45203,7 +45207,7 @@
         </is>
       </c>
       <c r="C2239" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="D2239" t="inlineStr">
         <is>
@@ -45223,7 +45227,7 @@
         </is>
       </c>
       <c r="C2240" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="D2240" t="inlineStr">
         <is>
@@ -45243,7 +45247,7 @@
         </is>
       </c>
       <c r="C2241" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="D2241" t="inlineStr">
         <is>
@@ -45263,7 +45267,7 @@
         </is>
       </c>
       <c r="C2242" t="n">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
       <c r="D2242" t="inlineStr">
         <is>
@@ -45283,7 +45287,7 @@
         </is>
       </c>
       <c r="C2243" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="D2243" t="inlineStr">
         <is>
@@ -45303,7 +45307,7 @@
         </is>
       </c>
       <c r="C2244" t="n">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
       <c r="D2244" t="inlineStr">
         <is>
@@ -45323,7 +45327,7 @@
         </is>
       </c>
       <c r="C2245" t="n">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
       <c r="D2245" t="inlineStr">
         <is>
@@ -45383,7 +45387,7 @@
         </is>
       </c>
       <c r="C2248" t="n">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
       <c r="D2248" t="inlineStr">
         <is>
@@ -45403,7 +45407,7 @@
         </is>
       </c>
       <c r="C2249" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="D2249" t="inlineStr">
         <is>
@@ -45423,7 +45427,7 @@
         </is>
       </c>
       <c r="C2250" t="n">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
       <c r="D2250" t="inlineStr">
         <is>
@@ -45843,7 +45847,7 @@
         </is>
       </c>
       <c r="C2271" t="n">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
       <c r="D2271" t="inlineStr">
         <is>
@@ -45863,7 +45867,7 @@
         </is>
       </c>
       <c r="C2272" t="n">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
       <c r="D2272" t="inlineStr">
         <is>
@@ -49243,7 +49247,7 @@
         </is>
       </c>
       <c r="C2441" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="D2441" t="inlineStr">
         <is>
@@ -55883,7 +55887,7 @@
         </is>
       </c>
       <c r="C2773" t="n">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
       <c r="D2773" t="inlineStr">
         <is>
@@ -63603,7 +63607,7 @@
         </is>
       </c>
       <c r="C3159" t="n">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
       <c r="D3159" t="inlineStr">
         <is>
@@ -63623,7 +63627,7 @@
         </is>
       </c>
       <c r="C3160" t="n">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
       <c r="D3160" t="inlineStr">
         <is>
@@ -63643,7 +63647,7 @@
         </is>
       </c>
       <c r="C3161" t="n">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
       <c r="D3161" t="inlineStr">
         <is>
@@ -69303,7 +69307,7 @@
         </is>
       </c>
       <c r="C3444" t="n">
-        <v>0.024</v>
+        <v>0.023</v>
       </c>
       <c r="D3444" t="inlineStr">
         <is>
@@ -69343,7 +69347,7 @@
         </is>
       </c>
       <c r="C3446" t="n">
-        <v>0.083</v>
+        <v>0.081</v>
       </c>
       <c r="D3446" t="inlineStr">
         <is>
@@ -69363,7 +69367,7 @@
         </is>
       </c>
       <c r="C3447" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D3447" t="inlineStr">
         <is>
@@ -69383,7 +69387,7 @@
         </is>
       </c>
       <c r="C3448" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D3448" t="inlineStr">
         <is>
@@ -75203,7 +75207,7 @@
         </is>
       </c>
       <c r="C3739" t="n">
-        <v>0.024</v>
+        <v>0.023</v>
       </c>
       <c r="D3739" t="inlineStr">
         <is>
@@ -75223,7 +75227,7 @@
         </is>
       </c>
       <c r="C3740" t="n">
-        <v>0.024</v>
+        <v>0.023</v>
       </c>
       <c r="D3740" t="inlineStr">
         <is>
@@ -75243,7 +75247,7 @@
         </is>
       </c>
       <c r="C3741" t="n">
-        <v>0.024</v>
+        <v>0.023</v>
       </c>
       <c r="D3741" t="inlineStr">
         <is>
@@ -75263,7 +75267,7 @@
         </is>
       </c>
       <c r="C3742" t="n">
-        <v>0.024</v>
+        <v>0.023</v>
       </c>
       <c r="D3742" t="inlineStr">
         <is>
@@ -75283,7 +75287,7 @@
         </is>
       </c>
       <c r="C3743" t="n">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
       <c r="D3743" t="inlineStr">
         <is>
@@ -75303,7 +75307,7 @@
         </is>
       </c>
       <c r="C3744" t="n">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
       <c r="D3744" t="inlineStr">
         <is>
@@ -78383,7 +78387,7 @@
         </is>
       </c>
       <c r="C3898" t="n">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
       <c r="D3898" t="inlineStr">
         <is>
